--- a/decArgo_doc/decoder_versions/matlab_DOXY_versions_20180919.xlsx
+++ b/decArgo_doc/decoder_versions/matlab_DOXY_versions_20180919.xlsx
@@ -318,9 +318,6 @@
     <t>Test float</t>
   </si>
   <si>
-    <t>no float</t>
-  </si>
-  <si>
     <t>PPOX_DOXY</t>
   </si>
   <si>
@@ -408,9 +405,6 @@
     <t>061113</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>5.93</t>
   </si>
   <si>
@@ -619,6 +613,12 @@
   </si>
   <si>
     <t>no ("Near surface" and "Surface" data are sampled by Aanderaa 4330 only)</t>
+  </si>
+  <si>
+    <t>no float in JPR version of provorFloatInfo</t>
+  </si>
+  <si>
+    <t>no float (useless decoder)</t>
   </si>
 </sst>
 </file>
@@ -1024,20 +1024,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1354,8 +1354,8 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1364,7 @@
     <col min="2" max="2" width="32" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="26" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="26" customWidth="1"/>
     <col min="6" max="6" width="20.75" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.125" style="60" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="96.25" style="60" bestFit="1" customWidth="1"/>
@@ -1386,7 +1386,7 @@
         <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>89</v>
@@ -1398,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -1417,17 +1417,17 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="74" t="s">
-        <v>154</v>
+      <c r="D2" s="76" t="s">
+        <v>152</v>
       </c>
       <c r="E2" s="23">
         <v>3900532</v>
@@ -1439,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>11</v>
@@ -1456,10 +1456,10 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="24">
         <v>5902307</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>11</v>
@@ -1489,10 +1489,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="75"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="25">
         <v>1901218</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>11</v>
@@ -1522,17 +1522,17 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="74">
         <v>4330</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E5" s="32">
         <v>6901595</v>
@@ -1544,7 +1544,7 @@
         <v>27</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>11</v>
@@ -1563,29 +1563,29 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E6" s="32">
         <v>6902687</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G6" s="59">
         <v>32</v>
       </c>
       <c r="H6" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K6" s="35" t="s">
         <v>15</v>
@@ -1594,7 +1594,7 @@
         <v>13</v>
       </c>
       <c r="M6" s="61" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
@@ -1608,7 +1608,7 @@
         <v>4330</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E7" s="32">
         <v>6903153</v>
@@ -1620,7 +1620,7 @@
         <v>28</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>11</v>
@@ -1649,7 +1649,7 @@
         <v>4330</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E8" s="32">
         <v>6901898</v>
@@ -1661,7 +1661,7 @@
         <v>29</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>11</v>
@@ -1680,17 +1680,17 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="75">
         <v>4330</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E9" s="32">
         <v>6901032</v>
@@ -1702,13 +1702,13 @@
         <v>106</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>21</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K9" s="35" t="s">
         <v>47</v>
@@ -1721,11 +1721,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E10" s="32">
         <v>2902131</v>
@@ -1737,13 +1737,13 @@
         <v>301</v>
       </c>
       <c r="H10" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K10" s="35" t="s">
         <v>47</v>
@@ -1756,11 +1756,11 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E11" s="32">
         <v>6901468</v>
@@ -1772,7 +1772,7 @@
         <v>202</v>
       </c>
       <c r="H11" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I11" s="21" t="s">
         <v>12</v>
@@ -1791,14 +1791,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="F12" s="33" t="s">
         <v>9</v>
@@ -1807,7 +1807,7 @@
         <v>207</v>
       </c>
       <c r="H12" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>12</v>
@@ -1826,17 +1826,17 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="75">
         <v>4330</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E13" s="32">
         <v>6901899</v>
@@ -1848,7 +1848,7 @@
         <v>208</v>
       </c>
       <c r="H13" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>12</v>
@@ -1867,62 +1867,62 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E14" s="32">
         <v>6902737</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G14" s="59">
         <v>112</v>
       </c>
       <c r="H14" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>21</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K14" s="21" t="s">
         <v>47</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E15" s="32">
         <v>6902879</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G15" s="59">
         <v>123</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K15" s="21" t="s">
         <v>47</v>
@@ -1931,21 +1931,21 @@
         <v>13</v>
       </c>
       <c r="M15" s="64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="78">
+      <c r="C16" s="75">
         <v>4330</v>
       </c>
-      <c r="D16" s="74" t="s">
-        <v>158</v>
+      <c r="D16" s="76" t="s">
+        <v>156</v>
       </c>
       <c r="E16" s="23">
         <v>6901440</v>
@@ -1957,13 +1957,13 @@
         <v>107</v>
       </c>
       <c r="H16" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K16" s="35" t="s">
         <v>47</v>
@@ -1976,10 +1976,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="76"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="24">
         <v>7900592</v>
       </c>
@@ -1990,13 +1990,13 @@
         <v>109</v>
       </c>
       <c r="H17" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K17" s="45" t="s">
         <v>47</v>
@@ -2009,27 +2009,27 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="76"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="43" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G18" s="57">
         <v>110</v>
       </c>
       <c r="H18" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K18" s="46" t="s">
         <v>47</v>
@@ -2038,31 +2038,31 @@
         <v>13</v>
       </c>
       <c r="M18" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="75"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="54">
         <v>3902120</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G19" s="58">
         <v>111</v>
       </c>
       <c r="H19" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K19" s="47" t="s">
         <v>47</v>
@@ -2071,33 +2071,33 @@
         <v>13</v>
       </c>
       <c r="M19" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="74" t="s">
-        <v>160</v>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="76" t="s">
+        <v>158</v>
       </c>
       <c r="E20" s="23">
         <v>4901803</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G20" s="56">
         <v>121</v>
       </c>
       <c r="H20" s="56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K20" s="45" t="s">
         <v>47</v>
@@ -2106,31 +2106,31 @@
         <v>13</v>
       </c>
       <c r="M20" s="68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="75"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="25">
         <v>4901804</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G21" s="58">
         <v>122</v>
       </c>
       <c r="H21" s="58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K21" s="47" t="s">
         <v>47</v>
@@ -2139,15 +2139,15 @@
         <v>13</v>
       </c>
       <c r="M21" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="77"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="74" t="s">
-        <v>156</v>
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="76" t="s">
+        <v>154</v>
       </c>
       <c r="E22" s="23">
         <v>6901632</v>
@@ -2159,7 +2159,7 @@
         <v>201</v>
       </c>
       <c r="H22" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>12</v>
@@ -2178,10 +2178,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="77"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="76"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="24">
         <v>6901602</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>203</v>
       </c>
       <c r="H23" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>12</v>
@@ -2211,21 +2211,21 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="76"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="24">
         <v>6901603</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G24" s="57">
         <v>215</v>
       </c>
       <c r="H24" s="57" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>12</v>
@@ -2240,25 +2240,25 @@
         <v>13</v>
       </c>
       <c r="M24" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="75"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="78"/>
       <c r="E25" s="25">
         <v>6902813</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G25" s="58">
         <v>216</v>
       </c>
       <c r="H25" s="58" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>12</v>
@@ -2273,15 +2273,15 @@
         <v>14</v>
       </c>
       <c r="M25" s="70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E26" s="32">
         <v>6901628</v>
@@ -2293,7 +2293,7 @@
         <v>209</v>
       </c>
       <c r="H26" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I26" s="21" t="s">
         <v>12</v>
@@ -2312,11 +2312,11 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="74" t="s">
-        <v>157</v>
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="76" t="s">
+        <v>155</v>
       </c>
       <c r="E27" s="23">
         <v>6901467</v>
@@ -2328,7 +2328,7 @@
         <v>206</v>
       </c>
       <c r="H27" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I27" s="17" t="s">
         <v>12</v>
@@ -2347,27 +2347,27 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="76"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="77"/>
       <c r="E28" s="24">
         <v>6902798</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G28" s="57">
         <v>213</v>
       </c>
       <c r="H28" s="57" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>15</v>
@@ -2376,31 +2376,31 @@
         <v>13</v>
       </c>
       <c r="M28" s="48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="75"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="78"/>
       <c r="E29" s="25">
         <v>6902804</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G29" s="58">
         <v>214</v>
       </c>
       <c r="H29" s="58" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>12</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K29" s="11" t="s">
         <v>15</v>
@@ -2409,15 +2409,15 @@
         <v>13</v>
       </c>
       <c r="M29" s="72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E30" s="32">
         <v>6903237</v>
@@ -2429,13 +2429,13 @@
         <v>217</v>
       </c>
       <c r="H30" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I30" s="21" t="s">
         <v>12</v>
       </c>
       <c r="J30" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K30" s="21" t="s">
         <v>15</v>
@@ -2444,56 +2444,56 @@
         <v>13</v>
       </c>
       <c r="M30" s="61" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E31" s="65">
         <v>3901667</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G31" s="59">
         <v>1322</v>
       </c>
       <c r="H31" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J31" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="K31" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="L31" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="K31" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="L31" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="67" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="32" spans="1:13" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="78">
+      <c r="C32" s="75">
         <v>3835</v>
       </c>
-      <c r="D32" s="74" t="s">
-        <v>162</v>
+      <c r="D32" s="76" t="s">
+        <v>160</v>
       </c>
       <c r="E32" s="23">
         <v>6901748</v>
@@ -2505,7 +2505,7 @@
         <v>302</v>
       </c>
       <c r="H32" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I32" s="17" t="s">
         <v>12</v>
@@ -2524,10 +2524,10 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="77"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="75"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="78"/>
       <c r="E33" s="25">
         <v>6901749</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>303</v>
       </c>
       <c r="H33" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>12</v>
@@ -2557,17 +2557,17 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="77" t="s">
+      <c r="B34" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="77" t="s">
+      <c r="C34" s="74" t="s">
         <v>71</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E34" s="32">
         <v>6901628</v>
@@ -2579,7 +2579,7 @@
         <v>209</v>
       </c>
       <c r="H34" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="21" t="s">
         <v>12</v>
@@ -2598,11 +2598,11 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E35" s="32">
         <v>6903178</v>
@@ -2614,7 +2614,7 @@
         <v>2002</v>
       </c>
       <c r="H35" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" s="21" t="s">
         <v>12</v>
@@ -2633,29 +2633,29 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="77"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E36" s="32">
         <v>6900889</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G36" s="59">
         <v>1201</v>
       </c>
       <c r="H36" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J36" s="39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K36" s="21" t="s">
         <v>15</v>
@@ -2664,21 +2664,21 @@
         <v>14</v>
       </c>
       <c r="M36" s="41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="27" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="77">
+      <c r="C37" s="74">
         <v>3830</v>
       </c>
-      <c r="D37" s="74" t="s">
-        <v>164</v>
+      <c r="D37" s="76" t="s">
+        <v>162</v>
       </c>
       <c r="E37" s="23">
         <v>3901075</v>
@@ -2690,7 +2690,7 @@
         <v>1006</v>
       </c>
       <c r="H37" s="56" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I37" s="17" t="s">
         <v>11</v>
@@ -2709,21 +2709,21 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="27" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="76"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="77"/>
       <c r="E38" s="24">
         <v>6900524</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="57">
         <v>1008</v>
       </c>
       <c r="H38" s="57" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>11</v>
@@ -2738,31 +2738,31 @@
         <v>13</v>
       </c>
       <c r="M38" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="27" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="76"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="77"/>
       <c r="E39" s="24">
         <v>3901065</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G39" s="57">
         <v>1014</v>
       </c>
       <c r="H39" s="57" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>11</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>47</v>
@@ -2771,25 +2771,25 @@
         <v>13</v>
       </c>
       <c r="M39" s="73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="27" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="77"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="75"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="78"/>
       <c r="E40" s="25">
         <v>6900804</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G40" s="58">
         <v>1016</v>
       </c>
       <c r="H40" s="58" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>11</v>
@@ -2804,33 +2804,33 @@
         <v>13</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="27" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" s="77">
+      <c r="A41" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="74">
         <v>4330</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E41" s="32">
         <v>6901235</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G41" s="59">
         <v>1009</v>
       </c>
       <c r="H41" s="59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I41" s="21" t="s">
         <v>11</v>
@@ -2845,33 +2845,33 @@
         <v>13</v>
       </c>
       <c r="M41" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="27" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="74" t="s">
-        <v>165</v>
+      <c r="A42" s="74"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="76" t="s">
+        <v>163</v>
       </c>
       <c r="E42" s="23">
         <v>5904988</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G42" s="56">
         <v>1107</v>
       </c>
       <c r="H42" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K42" s="50" t="s">
         <v>15</v>
@@ -2882,60 +2882,60 @@
       <c r="M42" s="29"/>
     </row>
     <row r="43" spans="1:13" s="27" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="76"/>
+      <c r="A43" s="74"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="77"/>
       <c r="E43" s="24">
         <v>6903273</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G43" s="57">
         <v>1112</v>
       </c>
       <c r="H43" s="57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K43" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L43" s="51" t="s">
         <v>13</v>
       </c>
       <c r="M43" s="55" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="27" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="77"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="75"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="78"/>
       <c r="E44" s="25">
         <v>6902025</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G44" s="58">
         <v>1113</v>
       </c>
       <c r="H44" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J44" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K44" s="52" t="s">
         <v>15</v>
@@ -2946,29 +2946,29 @@
       <c r="M44" s="53"/>
     </row>
     <row r="45" spans="1:13" s="27" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="77"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
+      <c r="A45" s="74"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E45" s="32">
         <v>6900889</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G45" s="59">
         <v>1201</v>
       </c>
       <c r="H45" s="59" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J45" s="39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K45" s="21" t="s">
         <v>15</v>
@@ -2977,33 +2977,33 @@
         <v>14</v>
       </c>
       <c r="M45" s="41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="27" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="77" t="s">
+      <c r="A46" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="77" t="s">
+      <c r="C46" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="74" t="s">
-        <v>164</v>
+      <c r="D46" s="76" t="s">
+        <v>162</v>
       </c>
       <c r="E46" s="23">
         <v>6900760</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G46" s="56">
         <v>1013</v>
       </c>
       <c r="H46" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I46" s="17" t="s">
         <v>11</v>
@@ -3018,31 +3018,31 @@
         <v>13</v>
       </c>
       <c r="M46" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="27" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="77"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="75"/>
+      <c r="A47" s="74"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="78"/>
       <c r="E47" s="25">
         <v>6900876</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G47" s="58">
         <v>1015</v>
       </c>
       <c r="H47" s="58" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>47</v>
@@ -3051,33 +3051,33 @@
         <v>13</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="27" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="77"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E48" s="32">
         <v>6900796</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G48" s="59">
         <v>1101</v>
       </c>
       <c r="H48" s="59" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K48" s="35" t="s">
         <v>47</v>
@@ -3086,39 +3086,39 @@
         <v>13</v>
       </c>
       <c r="M48" s="41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="27" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="C49" s="77">
+      <c r="A49" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="74">
         <v>4330</v>
       </c>
-      <c r="D49" s="74" t="s">
-        <v>165</v>
+      <c r="D49" s="76" t="s">
+        <v>163</v>
       </c>
       <c r="E49" s="23">
         <v>6900526</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G49" s="56">
         <v>1104</v>
       </c>
       <c r="H49" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K49" s="50" t="s">
         <v>15</v>
@@ -3127,119 +3127,130 @@
         <v>13</v>
       </c>
       <c r="M49" s="29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:13" s="27" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="77"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="76"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="24">
         <v>6902014</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G50" s="57">
         <v>1105</v>
       </c>
       <c r="H50" s="57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K50" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L50" s="51" t="s">
         <v>13</v>
       </c>
       <c r="M50" s="73" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="27" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="77"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="76"/>
+      <c r="A51" s="74"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="24">
         <v>6902544</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G51" s="57">
         <v>1110</v>
       </c>
       <c r="H51" s="57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K51" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L51" s="51" t="s">
         <v>13</v>
       </c>
       <c r="M51" s="55" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="27" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="77"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="75"/>
+      <c r="A52" s="74"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="78"/>
       <c r="E52" s="25">
         <v>6902019</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G52" s="58">
         <v>1111</v>
       </c>
       <c r="H52" s="58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J52" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K52" s="52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L52" s="52" t="s">
         <v>13</v>
       </c>
       <c r="M52" s="53" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M52"/>
   <mergeCells count="43">
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C16:C31"/>
@@ -3256,25 +3267,14 @@
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="A16:A31"/>
     <mergeCell ref="B16:B31"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="A34:A36"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="67" orientation="landscape" r:id="rId1"/>
